--- a/biology/Zoologie/Azuré_des_géraniums/Azuré_des_géraniums.xlsx
+++ b/biology/Zoologie/Azuré_des_géraniums/Azuré_des_géraniums.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_g%C3%A9raniums</t>
+          <t>Azuré_des_géraniums</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aricia nicias
 L’Azuré des géraniums (Aricia nicias) est une espèce de lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_g%C3%A9raniums</t>
+          <t>Azuré_des_géraniums</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,52 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L’espèce Aricia nicias a été décrite par l'entomologiste allemand Johann Wilhelm Meigen en 1829, sous le nom initial de Polyommatus nicias[1],[2].
-Synonymes[2],[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L’espèce Aricia nicias a été décrite par l'entomologiste allemand Johann Wilhelm Meigen en 1829, sous le nom initial de Polyommatus nicias,.
+Synonymes, : 
 Polyommatus nicias Meigen, 1829 — protonyme
 Argus donzelii Boisduval, 1832
 Plebeius nicias (Meigen, 1829)
-Pseudoaricia nicias (Meigen, 1829)
-Liste des sous-espèces
-Selon Funet[2] :
+Pseudoaricia nicias (Meigen, 1829)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Azuré_des_géraniums</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_g%C3%A9raniums</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Funet :
 Aricia nicias nicias (Meigen, 1829)
 Aricia nicias bittis Fruhstorfer, 1915 — Oural, Altai, Sayan
 Aricia nicias borsippa Fruhstorfer, 1915 — Transbaïkalie
@@ -534,64 +582,68 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_des_g%C3%A9raniums</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_g%C3%A9raniums</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Azuré_des_géraniums</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_g%C3%A9raniums</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>en français : l’Azuré des géraniums, l’Argus des géraniums[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>en français : l’Azuré des géraniums, l’Argus des géraniums
 en anglais : Silvery Argus
 en néerlandais : zilverbruin blauwtj
 en espagnol : Borde Amplio</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_des_g%C3%A9raniums</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_g%C3%A9raniums</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Azuré_des_géraniums</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_g%C3%A9raniums</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon qui présente un grand dimorphisme sexuel : le dessus du mâle est bleu clair largement bordé de marron, celui de la femelle est marron. Ils ont tous deux une frange blanche.
 Le revers est beige très peu suffusé de bleu chez le mâle, les ailes antérieures sont ornées d'une ligne de points noirs et les postérieures d'une ligne sub-marginale de points blancs.
@@ -600,48 +652,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_des_g%C3%A9raniums</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_g%C3%A9raniums</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération de juillet à septembre selon l'altitude.
-Il hiverne à l'état de chenille. Les chenilles sont soignées par les fourmis[5].
-Plantes hôtes
-Ses plantes hôtes sont des Geranium, Geranium sylvaticum et Geranium pratense.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_des_g%C3%A9raniums</t>
+          <t>Azuré_des_géraniums</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,17 +673,164 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de juillet à septembre selon l'altitude.
+Il hiverne à l'état de chenille. Les chenilles sont soignées par les fourmis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_des_géraniums</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_g%C3%A9raniums</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Geranium, Geranium sylvaticum et Geranium pratense.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_des_géraniums</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_g%C3%A9raniums</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est présent en Europe dans les Pyrénées, les Alpes, et en Scandinavie, ainsi qu'en Sibérie et en Mongolie.
-En France métropolitaine il est présent dans deux départements, les Pyrénées-Orientales et le Puy-de-Dôme[6]. 
-Biotope
-Il affectionne les lisières des prairies sub-alpines au-dessus de 900 m d'altitude[5].
-Protection
-Pas de statut de protection particulier.
+En France métropolitaine il est présent dans deux départements, les Pyrénées-Orientales et le Puy-de-Dôme. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_des_géraniums</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_g%C3%A9raniums</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les lisières des prairies sub-alpines au-dessus de 900 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_des_géraniums</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_des_g%C3%A9raniums</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
